--- a/hbar/11-3-5.xlsx
+++ b/hbar/11-3-5.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Direct contribution [kg CO2-Eq]</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3.5. Klärschlammverbrennung Kohlekraftwerk, 50% geogen, Stuttgarter</t>
+    <t xml:space="preserve">11.3.5. Klärschlammverbrennung im Kohlekraftwerk, 50% geogen, Stuttgarter V.</t>
   </si>
   <si>
     <t xml:space="preserve">electricity production, lignite | electricity, high voltage | cut-off, U - DE</t>
@@ -2764,7 +2764,8 @@
         <v>4</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>125490.399067045</v>
+        <f aca="false">125490.399067045-359668.629*2</f>
+        <v>-593846.858932955</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>-4688989.0748</v>
@@ -4519,7 +4520,8 @@
         <v>143</v>
       </c>
       <c r="G207" s="0" t="n">
-        <v>2149406.80508553</v>
+        <f aca="false">2149406.80508552-359668.629*2</f>
+        <v>1430069.54708552</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4538,7 +4540,7 @@
         <v>145</v>
       </c>
       <c r="G209" s="0" t="n">
-        <v>219891.828270933</v>
+        <v>-219891.82827144</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10293,7 +10295,7 @@
         <v>396</v>
       </c>
       <c r="G847" s="0" t="n">
-        <v>114642.73053795</v>
+        <v>-114642.73053795</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12195,7 +12197,7 @@
         <v>457</v>
       </c>
       <c r="G1057" s="0" t="n">
-        <v>25134.0690475918</v>
+        <v>-25134.0690475918</v>
       </c>
     </row>
     <row r="1058" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
